--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -306,12 +306,6 @@
     <t>obw_138</t>
   </si>
   <si>
-    <t>obw_148</t>
-  </si>
-  <si>
-    <t>obw_154</t>
-  </si>
-  <si>
     <t>obw_139</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t>basen</t>
+  </si>
+  <si>
+    <t>obw_148 i 154</t>
+  </si>
+  <si>
+    <t>gniazda oranżeria</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,9 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -797,7 +794,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1068,7 +1065,7 @@
       <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="1">
@@ -1090,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1106,7 +1103,7 @@
       <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="1">
@@ -1128,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1144,7 +1141,7 @@
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="1">
@@ -1159,8 +1156,8 @@
       <c r="J10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>97</v>
+      <c r="K10" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
@@ -1262,8 +1259,8 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>95</v>
+      <c r="C15" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1295,8 +1292,8 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>96</v>
+      <c r="C16" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1368,7 +1365,7 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -1401,7 +1398,7 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="16" t="s">
         <v>58</v>
       </c>
@@ -1592,7 +1589,7 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="20" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -1625,7 +1622,7 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1656,7 +1653,7 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="10" t="s">
         <v>44</v>
       </c>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -33,12 +33,6 @@
     <t>rol_120</t>
   </si>
   <si>
-    <t>Kinkiet winiarnia</t>
-  </si>
-  <si>
-    <t>Kinkiet śmietnik</t>
-  </si>
-  <si>
     <t>rol_130</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>obw_145</t>
   </si>
   <si>
-    <t>obw_140</t>
-  </si>
-  <si>
     <t>obw_101</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>obw_76</t>
   </si>
   <si>
-    <t>obw_77</t>
-  </si>
-  <si>
     <t>obw_81</t>
   </si>
   <si>
@@ -318,10 +306,19 @@
     <t>basen</t>
   </si>
   <si>
-    <t>obw_148 i 154</t>
-  </si>
-  <si>
-    <t>gniazda oranżeria</t>
+    <t>oranżeria</t>
+  </si>
+  <si>
+    <t>Obwód nocny</t>
+  </si>
+  <si>
+    <t>gn_21</t>
+  </si>
+  <si>
+    <t>pompka</t>
+  </si>
+  <si>
+    <t>ogród</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,7 +794,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,25 +826,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -889,32 +889,30 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -928,25 +926,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -960,25 +958,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -992,28 +990,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1027,29 +1025,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1">
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1063,31 +1061,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M8" s="1">
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1101,31 +1099,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1139,31 +1137,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="O10" s="10" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1193,25 +1194,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1257,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1290,22 +1291,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1323,19 +1324,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1354,22 +1355,22 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>74</v>
+      <c r="J18" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1387,20 +1388,20 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1418,19 +1419,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1">
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1448,19 +1449,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1478,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1">
         <v>8</v>
@@ -1514,25 +1515,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1578,22 +1579,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>45</v>
+      <c r="J26" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -1611,20 +1612,20 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -1642,20 +1643,20 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M28" s="1">
         <v>3</v>
@@ -1672,20 +1673,18 @@
       <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C29" s="9"/>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M29" s="1">
         <v>4</v>
@@ -1703,19 +1702,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M30" s="1">
         <v>5</v>
@@ -1734,22 +1733,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M31" s="1">
         <v>6</v>
@@ -1767,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1779,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -1797,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1">
         <v>8</v>
@@ -1809,10 +1808,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
@@ -1835,7 +1834,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1846,7 +1845,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1857,7 +1856,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1868,7 +1867,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1879,7 +1878,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>prom_132_B</t>
-  </si>
-  <si>
-    <t>prom_132_C</t>
   </si>
   <si>
     <t>Promiennik na tarasie 1.30 (przy basenie)</t>
@@ -783,7 +780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,7 +791,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -909,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -932,19 +929,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -970,13 +967,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -996,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1011,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1032,7 +1029,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1044,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1061,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1076,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>37</v>
@@ -1085,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1099,31 +1096,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1137,34 +1134,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1258,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1267,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1291,22 +1288,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1330,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1355,22 +1352,22 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1401,7 +1398,7 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1431,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1455,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1479,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1">
         <v>8</v>
@@ -1585,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>38</v>
@@ -1618,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
@@ -1643,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1655,9 +1652,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="21"/>
-      <c r="K28" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="K28" s="9"/>
       <c r="M28" s="1">
         <v>3</v>
       </c>
@@ -1702,19 +1697,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="1">
         <v>5</v>
@@ -1733,22 +1728,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M31" s="1">
         <v>6</v>
@@ -1766,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1778,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -1808,10 +1803,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
@@ -1834,7 +1829,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1845,7 +1840,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1856,7 +1851,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1867,7 +1862,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1878,7 +1873,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>ogród</t>
+  </si>
+  <si>
+    <t>zgrane z pokrywą</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,7 +794,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1084,9 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
+      <c r="N8" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="O8" s="10" t="s">
         <v>93</v>
       </c>
@@ -1119,6 +1125,7 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
+      <c r="N9" s="21"/>
       <c r="O9" s="10" t="s">
         <v>93</v>
       </c>
@@ -1899,9 +1906,10 @@
       <c r="V41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -141,9 +141,6 @@
     <t>prom_132_B</t>
   </si>
   <si>
-    <t>Promiennik na tarasie 1.30 (przy basenie)</t>
-  </si>
-  <si>
     <t>rol_131</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>zgrane z pokrywą</t>
+  </si>
+  <si>
+    <t>Promiennik taras basen (A= 50%, A+B= 100%)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,7 +797,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -909,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -932,19 +935,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -970,13 +973,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -996,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1011,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1044,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1061,10 +1064,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1076,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>37</v>
@@ -1085,10 +1088,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1102,32 +1105,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1141,34 +1144,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1262,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1271,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1295,22 +1298,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1334,13 +1337,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1359,22 +1362,22 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1405,7 +1408,7 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1435,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1459,13 +1462,13 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1483,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1">
         <v>8</v>
@@ -1578,7 +1581,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1589,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>38</v>
@@ -1622,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
@@ -1647,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1658,7 +1661,7 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="9"/>
       <c r="M28" s="1">
         <v>3</v>
@@ -1704,19 +1707,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30" s="1">
         <v>5</v>
@@ -1735,22 +1738,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="1">
         <v>6</v>
@@ -1768,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1780,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -1810,10 +1813,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1869,7 +1872,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1907,9 +1910,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J26:J28"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -472,13 +472,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="23" t="s">
         <v>98</v>
       </c>
       <c r="O8" s="10" t="s">
@@ -1128,7 +1128,7 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="10" t="s">
         <v>92</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="23" t="s">
         <v>99</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -1630,7 +1630,7 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="10" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="9"/>
       <c r="M28" s="1">
         <v>3</v>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -216,9 +216,6 @@
     <t>niewykorzystane</t>
   </si>
   <si>
-    <t>nowe</t>
-  </si>
-  <si>
     <t>usunięte</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>Promiennik taras basen (A= 50%, A+B= 100%)</t>
+  </si>
+  <si>
+    <t>niezaprogramowane (nowe)</t>
+  </si>
+  <si>
+    <t>spięte programowo (ten sam obwód, różne kanały)</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +399,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -409,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -941,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -973,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -999,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1014,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1035,7 +1047,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1047,10 +1059,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1064,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1079,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>37</v>
@@ -1088,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1105,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
@@ -1130,7 +1142,7 @@
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1144,10 +1156,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -1159,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1265,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1298,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1313,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1374,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>52</v>
@@ -1598,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>38</v>
@@ -1650,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1738,7 +1750,7 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
@@ -1771,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1839,7 +1851,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1883,7 +1895,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1892,7 +1904,10 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>obw_206</t>
-  </si>
-  <si>
-    <t>obw_209</t>
   </si>
   <si>
     <t>rol_302</t>
@@ -483,13 +480,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,7 +806,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -985,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -1011,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1026,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1047,7 +1044,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1059,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1076,10 +1073,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1091,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>37</v>
@@ -1099,11 +1096,11 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>97</v>
+      <c r="N8" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1117,16 +1114,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
@@ -1135,14 +1132,14 @@
         <v>47</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1156,34 +1153,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1277,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1310,10 +1307,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1325,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1355,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1385,8 +1382,8 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="22" t="s">
-        <v>67</v>
+      <c r="J18" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>52</v>
@@ -1418,7 +1415,7 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="16" t="s">
         <v>52</v>
       </c>
@@ -1609,8 +1606,8 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="23" t="s">
-        <v>98</v>
+      <c r="J26" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>38</v>
@@ -1642,7 +1639,7 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="10" t="s">
         <v>39</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1725,14 +1722,12 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="K30" s="9"/>
       <c r="M30" s="1">
         <v>5</v>
       </c>
@@ -1750,13 +1745,13 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
@@ -1783,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1851,7 +1846,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1862,7 +1857,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1873,7 +1868,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1884,7 +1879,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1895,7 +1890,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1905,8 +1900,8 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
-        <v>100</v>
+      <c r="C40" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>spięte programowo (ten sam obwód, różne kanały)</t>
+  </si>
+  <si>
+    <t>thr_002</t>
+  </si>
+  <si>
+    <t>przepustnica w oranzerii</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,7 +812,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1693,12 @@
       <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -90,9 +90,6 @@
     <t>obw_99</t>
   </si>
   <si>
-    <t>gn_92</t>
-  </si>
-  <si>
     <t>11/1</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>rol_119</t>
   </si>
   <si>
-    <t>gn_108</t>
-  </si>
-  <si>
-    <t>gn_110</t>
-  </si>
-  <si>
     <t>obw_71</t>
   </si>
   <si>
@@ -180,27 +171,15 @@
     <t>pok_091</t>
   </si>
   <si>
-    <t>obw_207</t>
-  </si>
-  <si>
     <t>obw_89</t>
   </si>
   <si>
-    <t>obw_208</t>
-  </si>
-  <si>
-    <t>obw_206</t>
-  </si>
-  <si>
     <t>rol_302</t>
   </si>
   <si>
     <t>rol_303</t>
   </si>
   <si>
-    <t>gn_109</t>
-  </si>
-  <si>
     <t>pod_501</t>
   </si>
   <si>
@@ -249,12 +228,6 @@
     <t>obw_80</t>
   </si>
   <si>
-    <t>gn_134</t>
-  </si>
-  <si>
-    <t>gn_135</t>
-  </si>
-  <si>
     <t>obw_79</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>Obwód nocny</t>
   </si>
   <si>
-    <t>gn_21</t>
-  </si>
-  <si>
     <t>pompka</t>
   </si>
   <si>
@@ -325,6 +295,36 @@
   </si>
   <si>
     <t>przepustnica w oranzerii</t>
+  </si>
+  <si>
+    <t>obw_100</t>
+  </si>
+  <si>
+    <t>obw_98</t>
+  </si>
+  <si>
+    <t>obw_77</t>
+  </si>
+  <si>
+    <t>gn_114</t>
+  </si>
+  <si>
+    <t>gn_129</t>
+  </si>
+  <si>
+    <t>gn_130</t>
+  </si>
+  <si>
+    <t>gn_125</t>
+  </si>
+  <si>
+    <t>gn_127</t>
+  </si>
+  <si>
+    <t>gn_126</t>
+  </si>
+  <si>
+    <t>gn_128</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -812,7 +815,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,25 +847,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -912,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -927,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -950,19 +953,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -988,13 +991,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -1014,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1029,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1050,7 +1053,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1062,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1079,10 +1082,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1094,19 +1097,19 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>96</v>
+      <c r="N8" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1120,32 +1123,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1159,34 +1162,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1216,25 +1219,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1289,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1313,22 +1316,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1352,13 +1355,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1377,22 +1380,22 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>66</v>
+      <c r="J18" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1421,9 +1424,9 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1453,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1477,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1501,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1">
         <v>8</v>
@@ -1537,25 +1540,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1607,16 +1610,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="24" t="s">
-        <v>97</v>
+      <c r="J26" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
@@ -1640,14 +1643,14 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -1665,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1694,10 +1697,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1709,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M29" s="1">
         <v>4</v>
@@ -1727,13 +1730,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -1756,22 +1759,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M31" s="1">
         <v>6</v>
@@ -1789,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1801,7 +1804,7 @@
         <v>7</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -1831,10 +1834,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
@@ -1857,7 +1860,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>gn_128</t>
+  </si>
+  <si>
+    <t>ryn_127 (3F/6 - mała)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -815,7 +821,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1521,9 @@
       <c r="I22" s="1">
         <v>8</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="M22" s="1">
         <v>8</v>
       </c>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -273,9 +273,6 @@
     <t>Obwód nocny</t>
   </si>
   <si>
-    <t>pompka</t>
-  </si>
-  <si>
     <t>ogród</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>ryn_127 (3F/6 - mała)</t>
+  </si>
+  <si>
+    <t>fontanna</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,11 +498,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -820,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +927,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1002,7 +1005,7 @@
       <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="24" t="s">
         <v>63</v>
       </c>
       <c r="Q5" s="7"/>
@@ -1026,7 +1029,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1037,7 +1040,7 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="24" t="s">
         <v>64</v>
       </c>
       <c r="Q6" s="7"/>
@@ -1073,7 +1076,7 @@
       <c r="N7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="24" t="s">
         <v>79</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1111,10 +1114,10 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="N8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="24" t="s">
         <v>81</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1146,14 +1149,14 @@
       <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="24" t="s">
         <v>53</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="10" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="24" t="s">
         <v>81</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1192,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="10" t="s">
         <v>84</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1367,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -1397,7 +1400,7 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="26" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -1430,7 +1433,7 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="16" t="s">
         <v>49</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1492,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1510,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -1521,8 +1524,8 @@
       <c r="I22" s="1">
         <v>8</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>102</v>
+      <c r="K22" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="M22" s="1">
         <v>8</v>
@@ -1623,10 +1626,10 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="1">
@@ -1656,8 +1659,8 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="10" t="s">
+      <c r="J27" s="27"/>
+      <c r="K27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="1">
@@ -1705,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1738,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -168,9 +168,6 @@
     <t>okn_112L</t>
   </si>
   <si>
-    <t>pok_091</t>
-  </si>
-  <si>
     <t>obw_89</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>fontanna</t>
+  </si>
+  <si>
+    <t>poolCover_Open</t>
+  </si>
+  <si>
+    <t>poolCover_Close</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +502,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -813,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,7 +830,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -962,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -1000,13 +1006,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -1026,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1041,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1062,7 +1068,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -1074,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1091,10 +1097,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1106,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>36</v>
@@ -1114,11 +1120,11 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="27" t="s">
-        <v>85</v>
+      <c r="N8" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1132,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1">
         <v>7</v>
@@ -1150,14 +1156,14 @@
         <v>44</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1171,34 +1177,34 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1292,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1307,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1325,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1340,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1370,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -1400,11 +1406,11 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>59</v>
+      <c r="J18" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1433,9 +1439,9 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="16" t="s">
-        <v>49</v>
+      <c r="J19" s="27"/>
+      <c r="K19" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1465,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1495,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1513,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -1525,7 +1531,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M22" s="1">
         <v>8</v>
@@ -1626,8 +1632,8 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>86</v>
+      <c r="J26" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>37</v>
@@ -1659,7 +1665,7 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="24" t="s">
         <v>38</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1708,10 +1714,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1741,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -1770,13 +1776,13 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
@@ -1803,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1904,7 +1910,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1926,7 +1932,7 @@
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Obwód nocny</t>
   </si>
   <si>
-    <t>ogród</t>
-  </si>
-  <si>
     <t>zgrane z pokrywą</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
   </si>
   <si>
     <t>ryn_127 (3F/6 - mała)</t>
-  </si>
-  <si>
-    <t>fontanna</t>
   </si>
   <si>
     <t>poolCover_Open</t>
@@ -819,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,7 +824,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +927,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1035,7 +1029,7 @@
         <v>65</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1121,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" s="24" t="s">
         <v>80</v>
@@ -1200,12 +1194,7 @@
       <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>101</v>
-      </c>
+      <c r="O10" s="9"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1313,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1334,7 +1323,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1376,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1395,7 +1384,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -1410,7 +1399,7 @@
         <v>58</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1441,7 +1430,7 @@
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1471,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1501,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1519,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -1531,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="1">
         <v>8</v>
@@ -1633,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>37</v>
@@ -1714,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1747,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -1877,7 +1866,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1932,7 +1921,7 @@
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -153,9 +153,6 @@
     <t>obw_71</t>
   </si>
   <si>
-    <t>zasilanie ogrzewania podłogowego (całość)</t>
-  </si>
-  <si>
     <t>okno prawe oranzeria</t>
   </si>
   <si>
@@ -325,6 +322,12 @@
   </si>
   <si>
     <t>poolCover_Close</t>
+  </si>
+  <si>
+    <t>zasilanie DIM_001</t>
+  </si>
+  <si>
+    <t>zasilanie podłogłówki</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +499,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -813,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -939,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -962,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -1000,13 +1006,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="2"/>
@@ -1026,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -1041,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="2"/>
@@ -1062,11 +1068,14 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1074,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1091,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1106,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>36</v>
@@ -1114,11 +1123,11 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>83</v>
+      <c r="N8" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1132,32 +1141,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1">
+        <v>49</v>
+      </c>
+      <c r="I9" s="27">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>52</v>
+      <c r="J9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1171,25 +1180,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="1">
         <v>8</v>
@@ -1287,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>6</v>
@@ -1302,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -1320,10 +1329,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1335,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="1">
         <v>2</v>
@@ -1365,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1384,7 +1393,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -1395,11 +1404,11 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>58</v>
+      <c r="J18" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="1">
         <v>4</v>
@@ -1428,9 +1437,9 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
@@ -1460,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1490,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" s="1">
         <v>7</v>
@@ -1508,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -1520,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22" s="1">
         <v>8</v>
@@ -1621,8 +1630,8 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>84</v>
+      <c r="J26" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>37</v>
@@ -1654,7 +1663,7 @@
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="24" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1703,10 +1712,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1736,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
@@ -1765,22 +1774,22 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="1">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31" s="1">
         <v>6</v>
@@ -1798,7 +1807,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1810,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -1840,10 +1849,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1877,7 +1886,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -1888,7 +1897,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -1910,7 +1919,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -1921,7 +1930,7 @@
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -819,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -477,9 +477,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,6 +496,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -819,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,7 +830,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
       <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="9" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="7"/>
@@ -1046,7 +1046,7 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="7"/>
@@ -1085,7 +1085,7 @@
       <c r="N7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1102,7 +1102,7 @@
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="1">
@@ -1126,7 +1126,7 @@
       <c r="N8" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>79</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1143,7 +1143,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="1">
@@ -1152,20 +1152,20 @@
       <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>7</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
       <c r="N9" s="29"/>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="23" t="s">
         <v>79</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1182,7 +1182,7 @@
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="1">
@@ -1197,7 +1197,7 @@
       <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>76</v>
       </c>
       <c r="M10" s="1">
@@ -1298,7 +1298,7 @@
       <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1">
@@ -1316,7 +1316,7 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="27"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1331,7 +1331,7 @@
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="1">
@@ -1349,7 +1349,7 @@
       <c r="M16" s="1">
         <v>2</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="27"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1379,7 +1379,7 @@
       <c r="M17" s="1">
         <v>3</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="27"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1413,7 +1413,7 @@
       <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="27"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1438,13 +1438,13 @@
         <v>5</v>
       </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>100</v>
       </c>
       <c r="M19" s="1">
         <v>5</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="27"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1474,7 +1474,7 @@
       <c r="M20" s="1">
         <v>6</v>
       </c>
-      <c r="O20" s="18"/>
+      <c r="O20" s="7"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1504,7 +1504,7 @@
       <c r="M21" s="1">
         <v>7</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="27"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1528,13 +1528,13 @@
       <c r="I22" s="1">
         <v>8</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>98</v>
       </c>
       <c r="M22" s="1">
         <v>8</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="27"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1633,13 +1633,13 @@
       <c r="J26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="23" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="27"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1664,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="J27" s="29"/>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="27"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1694,12 +1694,12 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="9"/>
       <c r="M28" s="1">
         <v>3</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="27"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1714,7 +1714,7 @@
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="1">
@@ -1732,7 +1732,7 @@
       <c r="M29" s="1">
         <v>4</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="27"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1760,7 +1760,7 @@
       <c r="M30" s="1">
         <v>5</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="27"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1794,7 +1794,7 @@
       <c r="M31" s="1">
         <v>6</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="27"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1824,7 +1824,7 @@
       <c r="M32" s="1">
         <v>7</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="27"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -1857,7 +1857,7 @@
       <c r="M33" s="1">
         <v>8</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="27"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1929,7 +1929,7 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>85</v>
       </c>
       <c r="Q40" s="2"/>

--- a/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
+++ b/Kurasik/doc/DIN8SW8 - Duza rozdzielnia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>zasilanie podłogłówki</t>
+  </si>
+  <si>
+    <t>HeatPump (Q7.1)</t>
+  </si>
+  <si>
+    <t>HeatPump (Q7.2) (19/3)</t>
+  </si>
+  <si>
+    <t>Recuperator (Q13.7)</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,6 +527,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,7 +848,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1029,7 @@
       <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="30" t="s">
         <v>61</v>
       </c>
       <c r="Q5" s="7"/>
@@ -1046,7 +1064,7 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="30" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="7"/>
@@ -1203,7 +1221,9 @@
       <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1695,7 +1715,9 @@
         <v>3</v>
       </c>
       <c r="J28" s="20"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="M28" s="1">
         <v>3</v>
       </c>
@@ -1756,7 +1778,9 @@
       <c r="I30" s="1">
         <v>5</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="M30" s="1">
         <v>5</v>
       </c>
